--- a/16-May-2023_model_results.xlsx
+++ b/16-May-2023_model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/mstadt_uwaterloo_ca/Documents/Layton Lab Research/calcium/Manuscript_CaReg_FemPregLact/code/CaReg_FemPregLact/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_714DB1978EFED742421EF3677D7CBDB740334C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60EC345E-1CAF-4F1A-A47A-4902A46F20F1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_714DB1978EFED742421EF3677D7CBDB740334C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9EBE1E5-4EA4-48B5-AF89-B16931B65CF4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/16-May-2023_model_results.xlsx
+++ b/16-May-2023_model_results.xlsx
@@ -15,7 +15,262 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>k_PTHg_deg</t>
+  </si>
+  <si>
+    <t>rho_exo</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>k_PTHp_deg</t>
+  </si>
+  <si>
+    <t>Gamma_res_min</t>
+  </si>
+  <si>
+    <t>delta_res_max</t>
+  </si>
+  <si>
+    <t>kappa_b</t>
+  </si>
+  <si>
+    <t>nconv</t>
+  </si>
+  <si>
+    <t>gamma_conv_Ca</t>
+  </si>
+  <si>
+    <t>k_deg_D3</t>
+  </si>
+  <si>
+    <t>k_pf_Ca</t>
+  </si>
+  <si>
+    <t>k_fp_Ca</t>
+  </si>
+  <si>
+    <t>nPT</t>
+  </si>
+  <si>
+    <t>Cap_ref</t>
+  </si>
+  <si>
+    <t>nTAL</t>
+  </si>
+  <si>
+    <t>k_EGTA_on</t>
+  </si>
+  <si>
+    <t>k_EGTA_off</t>
+  </si>
+  <si>
+    <t>Vp</t>
+  </si>
+  <si>
+    <t>GFR</t>
+  </si>
+  <si>
+    <t>gamma_conv_D3</t>
+  </si>
+  <si>
+    <t>delta_conv_max</t>
+  </si>
+  <si>
+    <t>k_conv_min</t>
+  </si>
+  <si>
+    <t>D3_inact_p</t>
+  </si>
+  <si>
+    <t>gamma_prod_D3</t>
+  </si>
+  <si>
+    <t>ICa</t>
+  </si>
+  <si>
+    <t>Gamma_abs0</t>
+  </si>
+  <si>
+    <t>delta_abs_D3</t>
+  </si>
+  <si>
+    <t>K_abs_D3</t>
+  </si>
+  <si>
+    <t>K_D3p_res</t>
+  </si>
+  <si>
+    <t>Lambda_PT0</t>
+  </si>
+  <si>
+    <t>delta_PT_max</t>
+  </si>
+  <si>
+    <t>Lambda_TAL0</t>
+  </si>
+  <si>
+    <t>delta_TAL_max</t>
+  </si>
+  <si>
+    <t>delta_DCT_max</t>
+  </si>
+  <si>
+    <t>K_DCT_D3p</t>
+  </si>
+  <si>
+    <t>Lambda_DCT0</t>
+  </si>
+  <si>
+    <t>FetusORMilk</t>
+  </si>
+  <si>
+    <t>K_Ca_CASR</t>
+  </si>
+  <si>
+    <t>K_conv_PTH</t>
+  </si>
+  <si>
+    <t>k_prod_PTHg</t>
+  </si>
+  <si>
+    <t>K_PTHp_res</t>
+  </si>
+  <si>
+    <t>gamma_deg_PTHp</t>
+  </si>
+  <si>
+    <t>PTHp_ref</t>
+  </si>
+  <si>
+    <t>K_TAL_PTHp</t>
+  </si>
+  <si>
+    <t>K_DCT_PTHp</t>
+  </si>
+  <si>
+    <t>n1_exo</t>
+  </si>
+  <si>
+    <t>n2_exo</t>
+  </si>
+  <si>
+    <t>beta_exo_PTHg</t>
+  </si>
+  <si>
+    <t>gamma_exo_PTHg</t>
+  </si>
+  <si>
+    <t>Gamma_ac</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Lactation</t>
+  </si>
+  <si>
+    <t>Female2Male</t>
+  </si>
+  <si>
+    <t>Preg2Female</t>
+  </si>
+  <si>
+    <t>Lact2Female</t>
+  </si>
+  <si>
+    <t>Lact2Preg</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>[PTHp]</t>
+  </si>
+  <si>
+    <t>[Cap]</t>
+  </si>
+  <si>
+    <t>[1,25(OH)2D3]</t>
+  </si>
+  <si>
+    <t>PTHg</t>
+  </si>
+  <si>
+    <t>PTHp</t>
+  </si>
+  <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>D3p</t>
+  </si>
+  <si>
+    <t>NCaf</t>
+  </si>
+  <si>
+    <t>NCas</t>
+  </si>
+  <si>
+    <t>GutFracAbs</t>
+  </si>
+  <si>
+    <t>GutAbs</t>
+  </si>
+  <si>
+    <t>BoneResorption</t>
+  </si>
+  <si>
+    <t>Plasma2FastPool</t>
+  </si>
+  <si>
+    <t>FastPool2Plasma</t>
+  </si>
+  <si>
+    <t>RenalFracReab</t>
+  </si>
+  <si>
+    <t>UrineExcretion</t>
+  </si>
+  <si>
+    <t>BoneAccretion</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>Lactation</t>
+  </si>
+  <si>
+    <t>Female2Male</t>
+  </si>
+  <si>
+    <t>Preg2Female</t>
+  </si>
+  <si>
+    <t>Lact2Female</t>
+  </si>
+  <si>
+    <t>Lact2Preg</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -331,36 +586,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0">
         <v>0.035000000000000003</v>
@@ -381,7 +636,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B3" s="0">
         <v>10</v>
@@ -402,7 +657,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="B4" s="0">
         <v>1.1000000000000001</v>
@@ -423,7 +678,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="B5" s="0">
         <v>0.13200000000000001</v>
@@ -444,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B6" s="0">
         <v>0.00014200000000000001</v>
@@ -469,7 +724,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B7" s="0">
         <v>0.00069999999999999999</v>
@@ -494,7 +749,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B8" s="0">
         <v>0.40000000000000002</v>
@@ -515,7 +770,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="B9" s="0">
         <v>6</v>
@@ -536,7 +791,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B10" s="0">
         <v>0.29999999999999999</v>
@@ -557,7 +812,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B11" s="0">
         <v>0.0028999999999999998</v>
@@ -578,7 +833,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B12" s="0">
         <v>0.0016999999999999999</v>
@@ -599,7 +854,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0">
         <v>0.00027500000000000002</v>
@@ -620,7 +875,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B14" s="0">
         <v>2</v>
@@ -641,7 +896,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B15" s="0">
         <v>1.7</v>
@@ -662,7 +917,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B16" s="0">
         <v>2</v>
@@ -683,7 +938,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="B17" s="0">
         <v>90000</v>
@@ -704,7 +959,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="B18" s="0">
         <v>18</v>
@@ -725,7 +980,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="B19" s="0">
         <v>0.01</v>
@@ -754,7 +1009,7 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B20" s="0">
         <v>0.002</v>
@@ -783,7 +1038,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="B21" s="0">
         <v>0.017999999999999999</v>
@@ -812,7 +1067,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B22" s="0">
         <v>6.02e-05</v>
@@ -841,7 +1096,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B23" s="0">
         <v>4.4000000000000002e-06</v>
@@ -870,7 +1125,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="B24" s="0">
         <v>25000</v>
@@ -895,7 +1150,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="B25" s="0">
         <v>0.0030000000000000001</v>
@@ -924,7 +1179,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="B26" s="0">
         <v>0.0023</v>
@@ -953,7 +1208,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="B27" s="0">
         <v>0.25</v>
@@ -982,7 +1237,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B28" s="0">
         <v>0.45000000000000001</v>
@@ -1011,7 +1266,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="B29" s="0">
         <v>160</v>
@@ -1040,7 +1295,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B30" s="0">
         <v>160</v>
@@ -1069,7 +1324,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B31" s="0">
         <v>0.66000000000000003</v>
@@ -1092,7 +1347,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B32" s="0">
         <v>0.029999999999999999</v>
@@ -1115,7 +1370,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="B33" s="0">
         <v>0.185</v>
@@ -1138,7 +1393,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B34" s="0">
         <v>0.014999999999999999</v>
@@ -1161,7 +1416,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B35" s="0">
         <v>0.014999999999999999</v>
@@ -1184,7 +1439,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B36" s="0">
         <v>160</v>
@@ -1213,7 +1468,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B37" s="0">
         <v>0.095000000000000001</v>
@@ -1236,7 +1491,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -1263,7 +1518,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B39" s="0">
         <v>1.1699999999999999</v>
@@ -1288,7 +1543,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="B40" s="0">
         <v>7.25</v>
@@ -1313,7 +1568,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="B41" s="0">
         <v>3</v>
@@ -1338,7 +1593,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B42" s="0">
         <v>2.4500000000000002</v>
@@ -1365,7 +1620,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B43" s="0">
         <v>0.20000000000000001</v>
@@ -1392,7 +1647,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B44" s="0">
         <v>12</v>
@@ -1417,7 +1672,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B45" s="0">
         <v>4</v>
@@ -1444,7 +1699,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B46" s="0">
         <v>7.25</v>
@@ -1471,7 +1726,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="B47" s="0">
         <v>100</v>
@@ -1492,7 +1747,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="B48" s="0">
         <v>30</v>
@@ -1513,7 +1768,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B49" s="0">
         <v>0.058999999999999997</v>
@@ -1538,7 +1793,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B50" s="0">
         <v>0.057000000000000002</v>
@@ -1563,7 +1818,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="B51" s="0">
         <v>0.00095799999999999998</v>
@@ -1604,36 +1859,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="B2" s="0">
         <v>6.2784164648939598</v>
@@ -1662,7 +1917,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="B3" s="0">
         <v>1.1793690357007947</v>
@@ -1687,7 +1942,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="B4" s="0">
         <v>153.67088583185748</v>
@@ -1716,7 +1971,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="B5" s="0">
         <v>34.989235058348569</v>
@@ -1745,7 +2000,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="B6" s="0">
         <v>0.0627841646489396</v>
@@ -1774,7 +2029,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B7" s="0">
         <v>0.011793690357007947</v>
@@ -1803,7 +2058,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="B8" s="0">
         <v>1.5367088583185748</v>
@@ -1832,7 +2087,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B9" s="0">
         <v>1.6264076327025654</v>
@@ -1859,7 +2114,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="B10" s="0">
         <v>132.2106305687943</v>
@@ -1888,7 +2143,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B11" s="0">
         <v>0.46592379172859993</v>
@@ -1917,7 +2172,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="B12" s="0">
         <v>0.0010716247209757799</v>
@@ -1946,7 +2201,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="B13" s="0">
         <v>0.00053220381446098615</v>
@@ -1975,7 +2230,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="B14" s="0">
         <v>0.002004927360691351</v>
@@ -2000,7 +2255,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="B15" s="0">
         <v>0.00044726209899320553</v>
@@ -2027,7 +2282,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="B16" s="0">
         <v>0.98042872056983899</v>
@@ -2054,7 +2309,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="B17" s="0">
         <v>4.6163521897959594e-05</v>
@@ -2083,7 +2338,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="B18" s="0">
         <v>0.0015580985121290576</v>
